--- a/BaseCircuito.xlsx
+++ b/BaseCircuito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miniprecoltda.sharepoint.com/sites/AnliseComercial/Shared Documents/General/.RelatóriosPBI/CircuitoMiniPreco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="13_ncr:1_{740F4806-06D2-4238-A484-7872D49E4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878D8785-FDAF-49C9-88B8-0E2B4C57D746}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:1_{740F4806-06D2-4238-A484-7872D49E4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B928FD-C6E4-41CD-9AC6-65E4E78C6318}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{76509626-AFF2-4DAC-A68C-BFEA6BC3D27B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{76509626-AFF2-4DAC-A68C-BFEA6BC3D27B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="371">
   <si>
     <t>Períodos</t>
   </si>
@@ -210,15 +210,6 @@
     <t>f04093e3-d32c-4c5e-9829-16d41cbf1266</t>
   </si>
   <si>
-    <t>77a3c692-deb7-4d66-9379-2e5c6373b989</t>
-  </si>
-  <si>
-    <t>58cee4ac-ea91-40d4-918b-995632972ec8</t>
-  </si>
-  <si>
-    <t>2b9615e5-67f8-4e3d-9f36-6c12b71cae6f</t>
-  </si>
-  <si>
     <t>4a3ef6f9-3625-4af5-bad1-099bbba5cad4</t>
   </si>
   <si>
@@ -363,27 +354,6 @@
     <t>6636b865-7706-44c1-9a01-e5715dd0cfe1</t>
   </si>
   <si>
-    <t>cfece740-d4af-4f62-bfba-895f5c0df821</t>
-  </si>
-  <si>
-    <t>bbb764ce-a557-4dbb-b680-feb73f13d897</t>
-  </si>
-  <si>
-    <t>dedec1d2-1c2c-4e2b-8061-fab70fd8269b</t>
-  </si>
-  <si>
-    <t>b1404ff5-2164-4953-b35d-025725255ca8</t>
-  </si>
-  <si>
-    <t>3ddbd632-cb9e-4b57-837b-a4ddc0efff89</t>
-  </si>
-  <si>
-    <t>45bef1d3-37be-41ae-8866-e2b85611cc15</t>
-  </si>
-  <si>
-    <t>e87a83c5-4930-47fa-a760-25095db49464</t>
-  </si>
-  <si>
     <t>4021ed53-b77e-4926-a53a-fce4ecfb8953</t>
   </si>
   <si>
@@ -528,12 +498,6 @@
     <t>79e331e6-b295-42d7-a668-f2e1a0641a38</t>
   </si>
   <si>
-    <t>4dee2004-9faf-4900-8ffd-c6aad1f177a0</t>
-  </si>
-  <si>
-    <t>415c5ee8-3dea-45f1-a965-4a267663e357</t>
-  </si>
-  <si>
     <t>a37e87f1-58e9-44fb-b2d3-3b967105b8a8</t>
   </si>
   <si>
@@ -684,12 +648,6 @@
     <t>8468dcc2-b618-4963-a624-d433a4e512e5</t>
   </si>
   <si>
-    <t>Alcione em treinamento com Robison</t>
-  </si>
-  <si>
-    <t>2f8aa81b-9f99-4cae-84c8-de34ca94ffdd</t>
-  </si>
-  <si>
     <t>101febf6-3efb-4503-8376-9893da4ee630</t>
   </si>
   <si>
@@ -832,9 +790,6 @@
   </si>
   <si>
     <t>2df7d536-ad28-47fd-8bb4-5b1222b7ef49</t>
-  </si>
-  <si>
-    <t>a2f07c96-efd8-479e-8c0e-f4e694f56b6b</t>
   </si>
   <si>
     <t>Loja</t>
@@ -2418,10 +2373,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4D03568A-7C23-47BD-8B5A-0A11D8CC8587}" name="Baseperiodos" displayName="Baseperiodos" ref="A1:B6" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="A1:B6" xr:uid="{247FDA54-796C-4E34-8B45-D857995B92BD}"/>
@@ -2460,8 +2411,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{18235109-48C2-4188-B9EE-6042B28083E5}" name="EvolucaoComercial" displayName="EvolucaoComercial" ref="A1:N50" totalsRowShown="0">
-  <autoFilter ref="A1:N50" xr:uid="{18235109-48C2-4188-B9EE-6042B28083E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{18235109-48C2-4188-B9EE-6042B28083E5}" name="EvolucaoComercial" displayName="EvolucaoComercial" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{18235109-48C2-4188-B9EE-6042B28083E5}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{B90F4B17-1372-424F-85EC-887A3E8D2439}" name="NomeLoja" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{D960AFF5-282C-4383-B454-032EAD5493A8}" name="loja_key" dataDxfId="20">
@@ -2487,8 +2438,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{17C6E39F-FA9C-4BA0-9E71-E7BA60C240AE}" name="Qualidade" displayName="Qualidade" ref="A1:N50" totalsRowShown="0">
-  <autoFilter ref="A1:N50" xr:uid="{17C6E39F-FA9C-4BA0-9E71-E7BA60C240AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{17C6E39F-FA9C-4BA0-9E71-E7BA60C240AE}" name="Qualidade" displayName="Qualidade" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{17C6E39F-FA9C-4BA0-9E71-E7BA60C240AE}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D59A2C74-7598-4297-828F-9A61F0F6A6F1}" name="NomeLoja" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{6E0004B3-C668-4562-B560-15A184916306}" name="loja_key" dataDxfId="17">
@@ -2576,8 +2527,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7556CA79-C18E-48B5-A959-7C75467AA157}" name="Base1PlanoVoo" displayName="Base1PlanoVoo" ref="A1:N52" totalsRowShown="0">
-  <autoFilter ref="A1:N52" xr:uid="{7556CA79-C18E-48B5-A959-7C75467AA157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7556CA79-C18E-48B5-A959-7C75467AA157}" name="Base1PlanoVoo" displayName="Base1PlanoVoo" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{7556CA79-C18E-48B5-A959-7C75467AA157}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{ACB1B4BD-A2C2-4FD2-8D95-47F3EC5CBE25}" name="NomeLoja" dataDxfId="49"/>
     <tableColumn id="3" xr3:uid="{BDEB93BE-BD70-4886-8B34-7824D35D43B0}" name="loja_key" dataDxfId="48">
@@ -2603,8 +2554,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A48ABA85-A644-407F-829D-1D6C6AE83FEE}" name="ProjetoFast" displayName="ProjetoFast" ref="A1:N56" totalsRowShown="0">
-  <autoFilter ref="A1:N56" xr:uid="{A48ABA85-A644-407F-829D-1D6C6AE83FEE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A48ABA85-A644-407F-829D-1D6C6AE83FEE}" name="ProjetoFast" displayName="ProjetoFast" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{A48ABA85-A644-407F-829D-1D6C6AE83FEE}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F3DDC47F-2374-4C38-A94C-B5729F389EC9}" name="NomeLoja" dataDxfId="46"/>
     <tableColumn id="3" xr3:uid="{9E0F6E9F-E72A-41B1-915D-F17F093D8E90}" name="loja_key" dataDxfId="45"/>
@@ -2680,8 +2631,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{73025A4A-D305-4DE8-9A5D-39FA04ACD252}" name="PainelVendas" displayName="PainelVendas" ref="A1:N51" totalsRowShown="0">
-  <autoFilter ref="A1:N51" xr:uid="{73025A4A-D305-4DE8-9A5D-39FA04ACD252}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{73025A4A-D305-4DE8-9A5D-39FA04ACD252}" name="PainelVendas" displayName="PainelVendas" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{73025A4A-D305-4DE8-9A5D-39FA04ACD252}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F77A07E8-AF58-4C3A-A993-5E3D67CDC339}" name="NomeLoja" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{C2B6BE98-E146-4994-A6D9-788B52C0D9D9}" name="loja_key" dataDxfId="32">
@@ -4694,10 +4645,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4777,7 +4728,7 @@
         <v>1SetembroSemana 1</v>
       </c>
       <c r="N2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4788,6 +4739,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -4811,7 +4765,7 @@
         <v>2SetembroSemana 1</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4832,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -4851,7 +4805,7 @@
         <v>4SetembroSemana 1</v>
       </c>
       <c r="N4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4888,7 +4842,7 @@
         <v>6SetembroSemana 1</v>
       </c>
       <c r="N5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4922,7 +4876,7 @@
         <v>7SetembroSemana 1</v>
       </c>
       <c r="N6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4959,7 +4913,7 @@
         <v>8SetembroSemana 1</v>
       </c>
       <c r="N7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4980,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -4999,7 +4953,7 @@
         <v>10SetembroSemana 1</v>
       </c>
       <c r="N8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5033,7 +4987,7 @@
         <v>11SetembroSemana 1</v>
       </c>
       <c r="N9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5067,7 +5021,7 @@
         <v>12SetembroSemana 1</v>
       </c>
       <c r="N10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5104,7 +5058,7 @@
         <v>14SetembroSemana 1</v>
       </c>
       <c r="N11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5138,7 +5092,7 @@
         <v>19SetembroSemana 1</v>
       </c>
       <c r="N12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5172,7 +5126,7 @@
         <v>20SetembroSemana 1</v>
       </c>
       <c r="N13" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -5206,7 +5160,7 @@
         <v>1SetembroSemana 2</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -5240,7 +5194,7 @@
         <v>2SetembroSemana 2</v>
       </c>
       <c r="N15" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5274,7 +5228,7 @@
         <v>4SetembroSemana 2</v>
       </c>
       <c r="N16" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5308,7 +5262,7 @@
         <v>6SetembroSemana 2</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -5342,7 +5296,7 @@
         <v>7SetembroSemana 2</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -5376,7 +5330,7 @@
         <v>8SetembroSemana 2</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -5410,7 +5364,7 @@
         <v>10SetembroSemana 2</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -5444,7 +5398,7 @@
         <v>11SetembroSemana 2</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -5478,7 +5432,7 @@
         <v>12SetembroSemana 2</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -5512,7 +5466,7 @@
         <v>14SetembroSemana 2</v>
       </c>
       <c r="N23" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -5546,7 +5500,7 @@
         <v>19SetembroSemana 2</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -5580,7 +5534,7 @@
         <v>20SetembroSemana 2</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -5614,7 +5568,7 @@
         <v>1SetembroSemana 3</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5648,7 +5602,7 @@
         <v>2SetembroSemana 3</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5682,7 +5636,7 @@
         <v>4SetembroSemana 3</v>
       </c>
       <c r="N28" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5716,7 +5670,7 @@
         <v>6SetembroSemana 3</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5750,7 +5704,7 @@
         <v>7SetembroSemana 3</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5784,7 +5738,7 @@
         <v>8SetembroSemana 3</v>
       </c>
       <c r="N31" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5818,7 +5772,7 @@
         <v>10SetembroSemana 3</v>
       </c>
       <c r="N32" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -5852,7 +5806,7 @@
         <v>11SetembroSemana 3</v>
       </c>
       <c r="N33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -5886,7 +5840,7 @@
         <v>12SetembroSemana 3</v>
       </c>
       <c r="N34" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -5920,7 +5874,7 @@
         <v>14SetembroSemana 3</v>
       </c>
       <c r="N35" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5954,7 +5908,7 @@
         <v>19SetembroSemana 3</v>
       </c>
       <c r="N36" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -5988,7 +5942,7 @@
         <v>20SetembroSemana 3</v>
       </c>
       <c r="N37" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -6022,7 +5976,7 @@
         <v>1SetembroSemana 4</v>
       </c>
       <c r="N38" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -6056,7 +6010,7 @@
         <v>2SetembroSemana 4</v>
       </c>
       <c r="N39" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -6090,7 +6044,7 @@
         <v>4SetembroSemana 4</v>
       </c>
       <c r="N40" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -6124,7 +6078,7 @@
         <v>6SetembroSemana 4</v>
       </c>
       <c r="N41" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -6158,7 +6112,7 @@
         <v>7SetembroSemana 4</v>
       </c>
       <c r="N42" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -6192,7 +6146,7 @@
         <v>8SetembroSemana 4</v>
       </c>
       <c r="N43" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -6226,7 +6180,7 @@
         <v>10SetembroSemana 4</v>
       </c>
       <c r="N44" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -6260,7 +6214,7 @@
         <v>11SetembroSemana 4</v>
       </c>
       <c r="N45" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -6294,7 +6248,7 @@
         <v>12SetembroSemana 4</v>
       </c>
       <c r="N46" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -6328,7 +6282,7 @@
         <v>14SetembroSemana 4</v>
       </c>
       <c r="N47" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -6362,7 +6316,7 @@
         <v>19SetembroSemana 4</v>
       </c>
       <c r="N48" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -6396,29 +6350,7 @@
         <v>20SetembroSemana 4</v>
       </c>
       <c r="N49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>211</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="M50" t="e">
-        <f>EvolucaoComercial[[#This Row],[loja_key]]&amp;EvolucaoComercial[[#This Row],[Ciclo]]&amp;EvolucaoComercial[[#This Row],[Período]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6434,10 +6366,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,7 +6449,7 @@
         <v>1SetembroSemana 1</v>
       </c>
       <c r="N2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6551,7 +6483,7 @@
         <v>2SetembroSemana 1</v>
       </c>
       <c r="N3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -6585,7 +6517,7 @@
         <v>4SetembroSemana 1</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6622,7 +6554,7 @@
         <v>6SetembroSemana 1</v>
       </c>
       <c r="N5" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -6656,7 +6588,7 @@
         <v>7SetembroSemana 1</v>
       </c>
       <c r="N6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -6690,7 +6622,7 @@
         <v>8SetembroSemana 1</v>
       </c>
       <c r="N7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -6724,7 +6656,7 @@
         <v>10SetembroSemana 1</v>
       </c>
       <c r="N8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -6758,7 +6690,7 @@
         <v>11SetembroSemana 1</v>
       </c>
       <c r="N9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -6792,7 +6724,7 @@
         <v>12SetembroSemana 1</v>
       </c>
       <c r="N10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -6826,7 +6758,7 @@
         <v>14SetembroSemana 1</v>
       </c>
       <c r="N11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6860,7 +6792,7 @@
         <v>19SetembroSemana 1</v>
       </c>
       <c r="N12" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -6894,7 +6826,7 @@
         <v>20SetembroSemana 1</v>
       </c>
       <c r="N13" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -6928,7 +6860,7 @@
         <v>1SetembroSemana 2</v>
       </c>
       <c r="N14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6962,7 +6894,7 @@
         <v>2SetembroSemana 2</v>
       </c>
       <c r="N15" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6996,7 +6928,7 @@
         <v>4SetembroSemana 2</v>
       </c>
       <c r="N16" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7030,7 +6962,7 @@
         <v>6SetembroSemana 2</v>
       </c>
       <c r="N17" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7064,7 +6996,7 @@
         <v>7SetembroSemana 2</v>
       </c>
       <c r="N18" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7098,7 +7030,7 @@
         <v>8SetembroSemana 2</v>
       </c>
       <c r="N19" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7132,7 +7064,7 @@
         <v>10SetembroSemana 2</v>
       </c>
       <c r="N20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7166,7 +7098,7 @@
         <v>11SetembroSemana 2</v>
       </c>
       <c r="N21" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7200,7 +7132,7 @@
         <v>12SetembroSemana 2</v>
       </c>
       <c r="N22" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7234,7 +7166,7 @@
         <v>14SetembroSemana 2</v>
       </c>
       <c r="N23" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7268,7 +7200,7 @@
         <v>19SetembroSemana 2</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7302,7 +7234,7 @@
         <v>20SetembroSemana 2</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7336,7 +7268,7 @@
         <v>1SetembroSemana 3</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7370,7 +7302,7 @@
         <v>2SetembroSemana 3</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7404,7 +7336,7 @@
         <v>4SetembroSemana 3</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7438,7 +7370,7 @@
         <v>6SetembroSemana 3</v>
       </c>
       <c r="N29" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -7472,7 +7404,7 @@
         <v>7SetembroSemana 3</v>
       </c>
       <c r="N30" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -7506,7 +7438,7 @@
         <v>8SetembroSemana 3</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7540,7 +7472,7 @@
         <v>10SetembroSemana 3</v>
       </c>
       <c r="N32" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -7574,7 +7506,7 @@
         <v>11SetembroSemana 3</v>
       </c>
       <c r="N33" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -7608,7 +7540,7 @@
         <v>12SetembroSemana 3</v>
       </c>
       <c r="N34" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -7642,7 +7574,7 @@
         <v>14SetembroSemana 3</v>
       </c>
       <c r="N35" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7676,7 +7608,7 @@
         <v>19SetembroSemana 3</v>
       </c>
       <c r="N36" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -7710,7 +7642,7 @@
         <v>20SetembroSemana 3</v>
       </c>
       <c r="N37" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -7744,7 +7676,7 @@
         <v>1SetembroSemana 4</v>
       </c>
       <c r="N38" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -7778,7 +7710,7 @@
         <v>2SetembroSemana 4</v>
       </c>
       <c r="N39" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -7812,7 +7744,7 @@
         <v>4SetembroSemana 4</v>
       </c>
       <c r="N40" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -7846,7 +7778,7 @@
         <v>6SetembroSemana 4</v>
       </c>
       <c r="N41" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -7880,7 +7812,7 @@
         <v>7SetembroSemana 4</v>
       </c>
       <c r="N42" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -7914,7 +7846,7 @@
         <v>8SetembroSemana 4</v>
       </c>
       <c r="N43" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -7948,7 +7880,7 @@
         <v>10SetembroSemana 4</v>
       </c>
       <c r="N44" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -7982,7 +7914,7 @@
         <v>11SetembroSemana 4</v>
       </c>
       <c r="N45" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -8016,7 +7948,7 @@
         <v>12SetembroSemana 4</v>
       </c>
       <c r="N46" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -8050,7 +7982,7 @@
         <v>14SetembroSemana 4</v>
       </c>
       <c r="N47" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8084,7 +8016,7 @@
         <v>19SetembroSemana 4</v>
       </c>
       <c r="N48" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -8118,26 +8050,7 @@
         <v>20SetembroSemana 4</v>
       </c>
       <c r="N49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="M50" t="e">
-        <f>Qualidade[[#This Row],[loja_key]]&amp;Qualidade[[#This Row],[Ciclo]]&amp;Qualidade[[#This Row],[Período]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9707,42 +9620,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -9751,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -9764,24 +9677,24 @@
         <v>1760.37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
@@ -9790,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -9803,31 +9716,31 @@
         <v>3800.49</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -9840,10 +9753,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -9853,7 +9766,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>33</v>
@@ -9862,7 +9775,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -9875,31 +9788,31 @@
         <v>1622.45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E6" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -9912,10 +9825,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -9925,7 +9838,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
@@ -9934,7 +9847,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -9947,22 +9860,22 @@
         <v>923</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>37</v>
@@ -9971,7 +9884,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -9984,22 +9897,22 @@
         <v>3504.74</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
@@ -10008,7 +9921,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10021,31 +9934,31 @@
         <v>893.57</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E10" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10057,7 +9970,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
@@ -10065,7 +9978,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -10074,7 +9987,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E11" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10087,22 +10000,22 @@
         <v>985.12</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
@@ -10111,7 +10024,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E12" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10124,22 +10037,22 @@
         <v>1071.06</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
@@ -10148,7 +10061,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10161,22 +10074,22 @@
         <v>170</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -10185,7 +10098,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10198,31 +10111,31 @@
         <v>1292.93</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C15" s="8">
         <v>17</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10234,7 +10147,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
@@ -10242,16 +10155,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C16" s="8">
         <v>18</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10263,7 +10176,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
@@ -10271,7 +10184,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>49</v>
@@ -10280,7 +10193,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10293,22 +10206,22 @@
         <v>1143.8399999999999</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>51</v>
@@ -10317,7 +10230,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10330,31 +10243,31 @@
         <v>980.91</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C19" s="4">
         <v>101</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10366,7 +10279,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
@@ -10374,16 +10287,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C20" s="4">
         <v>102</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10395,7 +10308,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
@@ -10403,16 +10316,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C21" s="4">
         <v>104</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10424,7 +10337,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
@@ -10432,16 +10345,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C22" s="4">
         <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10453,7 +10366,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
@@ -10461,16 +10374,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C23" s="4">
         <v>111</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E23" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10482,7 +10395,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="5"/>
@@ -10490,16 +10403,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C24" s="4">
         <v>112</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10511,7 +10424,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
@@ -10519,16 +10432,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C25" s="4">
         <v>119</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10540,7 +10453,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="5"/>
@@ -10548,16 +10461,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C26" s="4">
         <v>201</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10569,7 +10482,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
@@ -10577,16 +10490,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C27" s="4">
         <v>202</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E27" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10598,7 +10511,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="5"/>
@@ -10606,16 +10519,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C28" s="4">
         <v>203</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E28" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10627,7 +10540,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
@@ -10635,16 +10548,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C29" s="4">
         <v>204</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E29" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10656,7 +10569,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="5"/>
@@ -10664,16 +10577,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C30" s="4">
         <v>207</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E30" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10685,7 +10598,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="5"/>
@@ -10693,16 +10606,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C31" s="4">
         <v>208</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E31" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10714,7 +10627,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="5"/>
@@ -10722,16 +10635,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C32" s="4">
         <v>206</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E32" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10744,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -10757,16 +10670,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C33" s="4">
         <v>301</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E33" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10779,31 +10692,31 @@
         <v>3445.36</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C34" s="4">
         <v>303</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E34" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10816,31 +10729,31 @@
         <v>2720.3</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C35" s="4">
         <v>304</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E35" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10853,31 +10766,31 @@
         <v>3336.82</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C36" s="4">
         <v>305</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E36" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10890,31 +10803,31 @@
         <v>1681.9</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C37" s="4">
         <v>306</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E37" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10927,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -10940,16 +10853,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C38" s="4">
         <v>307</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E38" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10962,31 +10875,31 @@
         <v>1335</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C39" s="4">
         <v>308</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E39" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -10999,31 +10912,31 @@
         <v>1350</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C40" s="4">
         <v>701</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E40" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -11036,29 +10949,29 @@
         <v>3445.36</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C41" s="4">
         <v>703</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E41" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -11071,29 +10984,29 @@
         <v>2720.3</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C42" s="4">
         <v>704</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E42" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -11106,29 +11019,29 @@
         <v>3336.82</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C43" s="4">
         <v>705</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E43" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -11141,29 +11054,29 @@
         <v>1681.9</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C44" s="4">
         <v>706</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E44" s="3" t="str">
         <f>IF(OR(perfilLoja[[#This Row],[Loja Key]]=1,perfilLoja[[#This Row],[Loja Key]]=7,perfilLoja[[#This Row],[Loja Key]]=8,perfilLoja[[#This Row],[Loja Key]]=11,perfilLoja[[#This Row],[Loja Key]]=12,perfilLoja[[#This Row],[Loja Key]]=19),"PR 1",
@@ -11176,10 +11089,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
@@ -11255,10 +11168,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12991,60 +12904,6 @@
         <v>20SetembroSemana 4</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="M50" t="s">
-        <v>53</v>
-      </c>
-      <c r="N50" t="e">
-        <f>Base1PlanoVoo[[#This Row],[loja_key]]&amp;Base1PlanoVoo[[#This Row],[Ciclo]]&amp;Base1PlanoVoo[[#This Row],[Período]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="M51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N51" t="e">
-        <f>Base1PlanoVoo[[#This Row],[loja_key]]&amp;Base1PlanoVoo[[#This Row],[Ciclo]]&amp;Base1PlanoVoo[[#This Row],[Período]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="M52" t="s">
-        <v>55</v>
-      </c>
-      <c r="N52" t="e">
-        <f>Base1PlanoVoo[[#This Row],[loja_key]]&amp;Base1PlanoVoo[[#This Row],[Ciclo]]&amp;Base1PlanoVoo[[#This Row],[Período]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -13058,10 +12917,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13145,7 +13004,7 @@
         <v>1SetembroSemana 1</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -13178,7 +13037,7 @@
         <v>2SetembroSemana 1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -13211,7 +13070,7 @@
         <v>4SetembroSemana 1</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -13250,7 +13109,7 @@
         <v>6SetembroSemana 1</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -13283,7 +13142,7 @@
         <v>7SetembroSemana 1</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -13319,7 +13178,7 @@
         <v>8SetembroSemana 1</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -13355,7 +13214,7 @@
         <v>10SetembroSemana 1</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -13388,7 +13247,7 @@
         <v>11SetembroSemana 1</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -13421,7 +13280,7 @@
         <v>12SetembroSemana 1</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -13457,7 +13316,7 @@
         <v>14SetembroSemana 1</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -13490,7 +13349,7 @@
         <v>19SetembroSemana 1</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -13523,7 +13382,7 @@
         <v>20SetembroSemana 1</v>
       </c>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -13556,7 +13415,7 @@
         <v>1SetembroSemana 2</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -13589,7 +13448,7 @@
         <v>2SetembroSemana 2</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -13622,7 +13481,7 @@
         <v>4SetembroSemana 2</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -13655,7 +13514,7 @@
         <v>6SetembroSemana 2</v>
       </c>
       <c r="N17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -13688,7 +13547,7 @@
         <v>7SetembroSemana 2</v>
       </c>
       <c r="N18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -13721,7 +13580,7 @@
         <v>8SetembroSemana 2</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -13754,7 +13613,7 @@
         <v>10SetembroSemana 2</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -13787,7 +13646,7 @@
         <v>11SetembroSemana 2</v>
       </c>
       <c r="N21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -13820,7 +13679,7 @@
         <v>12SetembroSemana 2</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -13853,7 +13712,7 @@
         <v>14SetembroSemana 2</v>
       </c>
       <c r="N23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -13886,7 +13745,7 @@
         <v>19SetembroSemana 2</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -13919,7 +13778,7 @@
         <v>20SetembroSemana 2</v>
       </c>
       <c r="N25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -13952,7 +13811,7 @@
         <v>1SetembroSemana 3</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -13985,7 +13844,7 @@
         <v>2SetembroSemana 3</v>
       </c>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -14018,7 +13877,7 @@
         <v>4SetembroSemana 3</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -14051,7 +13910,7 @@
         <v>6SetembroSemana 3</v>
       </c>
       <c r="N29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -14084,7 +13943,7 @@
         <v>7SetembroSemana 3</v>
       </c>
       <c r="N30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -14117,7 +13976,7 @@
         <v>8SetembroSemana 3</v>
       </c>
       <c r="N31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -14150,7 +14009,7 @@
         <v>10SetembroSemana 3</v>
       </c>
       <c r="N32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -14183,7 +14042,7 @@
         <v>11SetembroSemana 3</v>
       </c>
       <c r="N33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -14216,7 +14075,7 @@
         <v>12SetembroSemana 3</v>
       </c>
       <c r="N34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -14249,7 +14108,7 @@
         <v>14SetembroSemana 3</v>
       </c>
       <c r="N35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -14282,7 +14141,7 @@
         <v>19SetembroSemana 3</v>
       </c>
       <c r="N36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -14315,7 +14174,7 @@
         <v>20SetembroSemana 3</v>
       </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -14348,7 +14207,7 @@
         <v>1SetembroSemana 4</v>
       </c>
       <c r="N38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -14381,7 +14240,7 @@
         <v>2SetembroSemana 4</v>
       </c>
       <c r="N39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -14414,7 +14273,7 @@
         <v>4SetembroSemana 4</v>
       </c>
       <c r="N40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -14447,7 +14306,7 @@
         <v>6SetembroSemana 4</v>
       </c>
       <c r="N41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -14480,7 +14339,7 @@
         <v>7SetembroSemana 4</v>
       </c>
       <c r="N42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -14513,7 +14372,7 @@
         <v>8SetembroSemana 4</v>
       </c>
       <c r="N43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -14546,7 +14405,7 @@
         <v>10SetembroSemana 4</v>
       </c>
       <c r="N44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -14579,7 +14438,7 @@
         <v>11SetembroSemana 4</v>
       </c>
       <c r="N45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -14612,7 +14471,7 @@
         <v>12SetembroSemana 4</v>
       </c>
       <c r="N46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -14645,7 +14504,7 @@
         <v>14SetembroSemana 4</v>
       </c>
       <c r="N47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -14678,7 +14537,7 @@
         <v>19SetembroSemana 4</v>
       </c>
       <c r="N48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -14711,131 +14570,7 @@
         <v>20SetembroSemana 4</v>
       </c>
       <c r="N49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2"/>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="M50" t="str">
-        <f>ProjetoFast[[#This Row],[loja_key]]&amp;ProjetoFast[[#This Row],[Ciclo]]&amp;ProjetoFast[[#This Row],[Período]]</f>
-        <v/>
-      </c>
-      <c r="N50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2"/>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="M51" t="str">
-        <f>ProjetoFast[[#This Row],[loja_key]]&amp;ProjetoFast[[#This Row],[Ciclo]]&amp;ProjetoFast[[#This Row],[Período]]</f>
-        <v/>
-      </c>
-      <c r="N51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2"/>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="M52" t="str">
-        <f>ProjetoFast[[#This Row],[loja_key]]&amp;ProjetoFast[[#This Row],[Ciclo]]&amp;ProjetoFast[[#This Row],[Período]]</f>
-        <v/>
-      </c>
-      <c r="N52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="2"/>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="M53" t="str">
-        <f>ProjetoFast[[#This Row],[loja_key]]&amp;ProjetoFast[[#This Row],[Ciclo]]&amp;ProjetoFast[[#This Row],[Período]]</f>
-        <v/>
-      </c>
-      <c r="N53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="2"/>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="M54" t="str">
-        <f>ProjetoFast[[#This Row],[loja_key]]&amp;ProjetoFast[[#This Row],[Ciclo]]&amp;ProjetoFast[[#This Row],[Período]]</f>
-        <v/>
-      </c>
-      <c r="N54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="2"/>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="M55" t="str">
-        <f>ProjetoFast[[#This Row],[loja_key]]&amp;ProjetoFast[[#This Row],[Ciclo]]&amp;ProjetoFast[[#This Row],[Período]]</f>
-        <v/>
-      </c>
-      <c r="N55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="2"/>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="M56" t="str">
-        <f>ProjetoFast[[#This Row],[loja_key]]&amp;ProjetoFast[[#This Row],[Ciclo]]&amp;ProjetoFast[[#This Row],[Período]]</f>
-        <v/>
-      </c>
-      <c r="N56" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -17945,10 +17680,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18028,7 +17763,7 @@
         <v>1SetembroSemana 1</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -18068,7 +17803,7 @@
         <v>2SetembroSemana 1</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -18102,7 +17837,7 @@
         <v>4SetembroSemana 1</v>
       </c>
       <c r="N4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -18142,7 +17877,7 @@
         <v>6SetembroSemana 1</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -18176,7 +17911,7 @@
         <v>7SetembroSemana 1</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -18213,7 +17948,7 @@
         <v>8SetembroSemana 1</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -18247,7 +17982,7 @@
         <v>10SetembroSemana 1</v>
       </c>
       <c r="N8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -18281,7 +18016,7 @@
         <v>11SetembroSemana 1</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -18315,7 +18050,7 @@
         <v>12SetembroSemana 1</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -18349,7 +18084,7 @@
         <v>14SetembroSemana 1</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -18383,7 +18118,7 @@
         <v>19SetembroSemana 1</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -18417,7 +18152,7 @@
         <v>20SetembroSemana 1</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -18451,7 +18186,7 @@
         <v>1SetembroSemana 2</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -18485,7 +18220,7 @@
         <v>2SetembroSemana 2</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -18519,7 +18254,7 @@
         <v>4SetembroSemana 2</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -18553,7 +18288,7 @@
         <v>6SetembroSemana 2</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -18587,7 +18322,7 @@
         <v>7SetembroSemana 2</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -18621,7 +18356,7 @@
         <v>8SetembroSemana 2</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -18655,7 +18390,7 @@
         <v>10SetembroSemana 2</v>
       </c>
       <c r="N20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -18689,7 +18424,7 @@
         <v>11SetembroSemana 2</v>
       </c>
       <c r="N21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -18723,7 +18458,7 @@
         <v>12SetembroSemana 2</v>
       </c>
       <c r="N22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -18757,7 +18492,7 @@
         <v>14SetembroSemana 2</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -18791,7 +18526,7 @@
         <v>19SetembroSemana 2</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -18825,7 +18560,7 @@
         <v>20SetembroSemana 2</v>
       </c>
       <c r="N25" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -18859,7 +18594,7 @@
         <v>1SetembroSemana 3</v>
       </c>
       <c r="N26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -18893,7 +18628,7 @@
         <v>2SetembroSemana 3</v>
       </c>
       <c r="N27" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -18927,7 +18662,7 @@
         <v>4SetembroSemana 3</v>
       </c>
       <c r="N28" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -18961,7 +18696,7 @@
         <v>6SetembroSemana 3</v>
       </c>
       <c r="N29" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -18995,7 +18730,7 @@
         <v>7SetembroSemana 3</v>
       </c>
       <c r="N30" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -19029,7 +18764,7 @@
         <v>8SetembroSemana 3</v>
       </c>
       <c r="N31" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -19063,7 +18798,7 @@
         <v>10SetembroSemana 3</v>
       </c>
       <c r="N32" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -19097,7 +18832,7 @@
         <v>11SetembroSemana 3</v>
       </c>
       <c r="N33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -19131,7 +18866,7 @@
         <v>12SetembroSemana 3</v>
       </c>
       <c r="N34" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -19165,7 +18900,7 @@
         <v>14SetembroSemana 3</v>
       </c>
       <c r="N35" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -19199,7 +18934,7 @@
         <v>19SetembroSemana 3</v>
       </c>
       <c r="N36" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -19233,7 +18968,7 @@
         <v>20SetembroSemana 3</v>
       </c>
       <c r="N37" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -19267,7 +19002,7 @@
         <v>1SetembroSemana 4</v>
       </c>
       <c r="N38" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -19301,7 +19036,7 @@
         <v>2SetembroSemana 4</v>
       </c>
       <c r="N39" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -19335,7 +19070,7 @@
         <v>4SetembroSemana 4</v>
       </c>
       <c r="N40" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -19369,7 +19104,7 @@
         <v>6SetembroSemana 4</v>
       </c>
       <c r="N41" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -19403,7 +19138,7 @@
         <v>7SetembroSemana 4</v>
       </c>
       <c r="N42" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -19437,7 +19172,7 @@
         <v>8SetembroSemana 4</v>
       </c>
       <c r="N43" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -19471,7 +19206,7 @@
         <v>10SetembroSemana 4</v>
       </c>
       <c r="N44" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -19505,7 +19240,7 @@
         <v>11SetembroSemana 4</v>
       </c>
       <c r="N45" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -19539,7 +19274,7 @@
         <v>12SetembroSemana 4</v>
       </c>
       <c r="N46" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -19573,7 +19308,7 @@
         <v>14SetembroSemana 4</v>
       </c>
       <c r="N47" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -19607,7 +19342,7 @@
         <v>19SetembroSemana 4</v>
       </c>
       <c r="N48" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -19641,48 +19376,7 @@
         <v>20SetembroSemana 4</v>
       </c>
       <c r="N49" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="M50" t="e">
-        <f>PainelVendas[[#This Row],[loja_key]]&amp;PainelVendas[[#This Row],[Ciclo]]&amp;PainelVendas[[#This Row],[Período]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2" t="e">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="M51" t="e">
-        <f>PainelVendas[[#This Row],[loja_key]]&amp;PainelVendas[[#This Row],[Ciclo]]&amp;PainelVendas[[#This Row],[Período]]</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N51" s="13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -22799,15 +22493,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010011E0662D860BB14E9E7378D0A468A8F8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="47c8612220cd5a22ff908fc1e0079b1e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ea526aaa-164e-434a-8705-9abc16ff397f" xmlns:ns3="13da06dc-386b-4f36-81f5-d6eca2d4f35a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74203c6a651966f7ad537317ded77b22" ns2:_="" ns3:_="">
     <xsd:import namespace="ea526aaa-164e-434a-8705-9abc16ff397f"/>
@@ -23002,6 +22687,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF07FC91-9956-4880-88CB-EF05853CDE0C}">
   <ds:schemaRefs>
@@ -23014,13 +22708,28 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33861E65-20B8-493C-B351-5174BF11B5B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ea526aaa-164e-434a-8705-9abc16ff397f"/>
+    <ds:schemaRef ds:uri="13da06dc-386b-4f36-81f5-d6eca2d4f35a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4529B6D-F9C4-4C0F-BDDC-0CCD5F86C80D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33861E65-20B8-493C-B351-5174BF11B5B2}"/>
 </file>
--- a/BaseCircuito.xlsx
+++ b/BaseCircuito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miniprecoltda.sharepoint.com/sites/AnliseComercial/Shared Documents/General/.RelatóriosPBI/CircuitoMiniPreco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:1_{740F4806-06D2-4238-A484-7872D49E4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B928FD-C6E4-41CD-9AC6-65E4E78C6318}"/>
+  <xr:revisionPtr revIDLastSave="709" documentId="13_ncr:1_{740F4806-06D2-4238-A484-7872D49E4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EEE1AF3-70FE-4870-8C57-69DC5275088C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="11" xr2:uid="{76509626-AFF2-4DAC-A68C-BFEA6BC3D27B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{76509626-AFF2-4DAC-A68C-BFEA6BC3D27B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo" sheetId="15" r:id="rId1"/>
@@ -3097,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C517446E-6608-4FD9-87C4-24D83E7CC431}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,8 +3152,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -3183,8 +3186,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -3214,8 +3220,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -3245,8 +3254,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -3276,8 +3288,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -3307,8 +3322,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -3338,8 +3356,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -3369,8 +3390,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3400,8 +3424,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -3431,8 +3458,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -3462,8 +3492,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -3493,8 +3526,11 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>20</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -3525,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -3556,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -3587,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -3618,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -3649,7 +3685,7 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -3680,7 +3716,7 @@
         <v>8</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -3711,7 +3747,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -3742,7 +3778,7 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -3773,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -3804,7 +3840,7 @@
         <v>14</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -3835,7 +3871,7 @@
         <v>19</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -3866,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -3897,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -3928,7 +3964,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -3959,7 +3995,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -3990,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -4021,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -4052,7 +4088,7 @@
         <v>8</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -4083,7 +4119,7 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -4114,7 +4150,7 @@
         <v>11</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -4145,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -4176,7 +4212,7 @@
         <v>14</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>8</v>
@@ -4207,7 +4243,7 @@
         <v>19</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -4238,7 +4274,7 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -4269,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -4300,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -4331,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -4362,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -4393,7 +4429,7 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -4424,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>8</v>
@@ -4455,7 +4491,7 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>8</v>
@@ -4486,7 +4522,7 @@
         <v>11</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>8</v>
@@ -4517,7 +4553,7 @@
         <v>12</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -4548,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -4579,7 +4615,7 @@
         <v>19</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -4610,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>8</v>
@@ -4647,8 +4683,8 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6368,8 +6404,8 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8066,7 +8102,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11171,7 +11207,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11239,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -11398,6 +11434,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -11546,6 +11585,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -11620,6 +11662,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -11653,6 +11698,9 @@
       <c r="B13" s="2">
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -12919,8 +12967,8 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12981,6 +13029,9 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>2</v>
       </c>
@@ -13014,6 +13065,9 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -13047,6 +13101,9 @@
       <c r="B4" s="2">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -13119,6 +13176,9 @@
       <c r="B6" s="2">
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -13224,6 +13284,9 @@
       <c r="B9" s="2">
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -13257,6 +13320,9 @@
       <c r="B10" s="2">
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -13326,6 +13392,9 @@
       <c r="B12" s="2">
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -13358,6 +13427,9 @@
       </c>
       <c r="B13" s="2">
         <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -14586,7 +14658,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14640,6 +14712,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -14671,6 +14746,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -14702,6 +14780,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -14733,6 +14814,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -14764,6 +14848,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -14795,6 +14882,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -14826,6 +14916,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -14857,6 +14950,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -14888,6 +14984,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -14919,6 +15018,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -14950,6 +15052,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -14980,6 +15085,9 @@
       <c r="B13" s="2">
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>20</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -16133,7 +16241,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16187,6 +16295,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2">
         <v>2</v>
       </c>
@@ -16218,6 +16329,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -16249,6 +16363,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -16280,6 +16397,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
@@ -16311,6 +16431,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -16342,6 +16465,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
       <c r="D7">
         <v>2</v>
       </c>
@@ -16373,6 +16499,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8">
         <v>2</v>
       </c>
@@ -16404,6 +16533,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -16435,6 +16567,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -16466,6 +16601,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>2</v>
       </c>
@@ -16497,6 +16635,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -16527,6 +16668,9 @@
       <c r="B13" s="2">
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -17682,8 +17826,8 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17740,6 +17884,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>2</v>
       </c>
@@ -17814,6 +17961,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -17888,6 +18038,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -17959,6 +18112,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
         <v>2</v>
       </c>
@@ -17993,6 +18149,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -18027,6 +18186,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -18061,6 +18223,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
         <v>2</v>
       </c>
@@ -18095,6 +18260,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -18128,6 +18296,9 @@
       <c r="B13" s="2">
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -19392,7 +19563,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20939,7 +21110,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BaseCircuito.xlsx
+++ b/BaseCircuito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miniprecoltda.sharepoint.com/sites/AnliseComercial/Shared Documents/General/.RelatóriosPBI/CircuitoMiniPreco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="709" documentId="13_ncr:1_{740F4806-06D2-4238-A484-7872D49E4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EEE1AF3-70FE-4870-8C57-69DC5275088C}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="13_ncr:1_{740F4806-06D2-4238-A484-7872D49E4FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F70392-1A24-4B04-AB4B-8A667EFD7F96}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{76509626-AFF2-4DAC-A68C-BFEA6BC3D27B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{76509626-AFF2-4DAC-A68C-BFEA6BC3D27B}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="371">
   <si>
     <t>Períodos</t>
   </si>
@@ -2465,8 +2465,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{90BBC2E0-AE87-4F68-A21C-7E035B245CAE}" name="Meta" displayName="Meta" ref="A1:M49" totalsRowShown="0">
-  <autoFilter ref="A1:M49" xr:uid="{90BBC2E0-AE87-4F68-A21C-7E035B245CAE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{90BBC2E0-AE87-4F68-A21C-7E035B245CAE}" name="Meta" displayName="Meta" ref="A1:M13" totalsRowShown="0">
+  <autoFilter ref="A1:M13" xr:uid="{90BBC2E0-AE87-4F68-A21C-7E035B245CAE}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{95B749F2-4EA7-4E43-88FC-207EC0E948AC}" name="NomeLoja" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{6872C651-E562-4741-A7CB-C2BEB7B8061B}" name="loja_key" dataDxfId="14">
@@ -2658,8 +2658,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EFCDA43A-62EF-4C00-9E40-A82E787838BF}" name="Engajamento" displayName="Engajamento" ref="A1:M49" totalsRowShown="0">
-  <autoFilter ref="A1:M49" xr:uid="{EFCDA43A-62EF-4C00-9E40-A82E787838BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EFCDA43A-62EF-4C00-9E40-A82E787838BF}" name="Engajamento" displayName="Engajamento" ref="A1:M13" totalsRowShown="0">
+  <autoFilter ref="A1:M13" xr:uid="{EFCDA43A-62EF-4C00-9E40-A82E787838BF}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{6BBCE81B-89B3-494B-9CAC-C7F687EAD6CD}" name="NomeLoja" dataDxfId="30"/>
     <tableColumn id="3" xr3:uid="{74E85229-FD67-4476-8441-15C3750BCDA7}" name="loja_key" dataDxfId="29">
@@ -2684,8 +2684,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5CF699FE-A1D1-4690-9F2B-A1D584B20E83}" name="VisualMerchandising" displayName="VisualMerchandising" ref="A1:M49" totalsRowShown="0">
-  <autoFilter ref="A1:M49" xr:uid="{5CF699FE-A1D1-4690-9F2B-A1D584B20E83}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5CF699FE-A1D1-4690-9F2B-A1D584B20E83}" name="VisualMerchandising" displayName="VisualMerchandising" ref="A1:M13" totalsRowShown="0">
+  <autoFilter ref="A1:M13" xr:uid="{5CF699FE-A1D1-4690-9F2B-A1D584B20E83}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{2DA1A72F-5858-4299-B3C8-1429C2408C24}" name="NomeLoja" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{6C2A1948-FC26-431E-B794-D2E7FEF77AC6}" name="loja_key" dataDxfId="26">
@@ -3097,7 +3097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C517446E-6608-4FD9-87C4-24D83E7CC431}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8099,10 +8099,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6654B59D-8157-482C-A038-1F8E78489122}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8518,1122 +8518,6 @@
       <c r="M13" t="str">
         <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
         <v>20SetembroSemana 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K14" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M14" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K15" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M15" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K16" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M16" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K17" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M17" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K18" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M18" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K19" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M19" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K20" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M20" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K21" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M21" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K22" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M22" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K23" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M23" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K24" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M24" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K25" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M25" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K26" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M26" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K27" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M27" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K28" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M28" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K29" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M29" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K30" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M30" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K31" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M31" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K32" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M32" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K33" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M33" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K34" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M34" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K35" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M35" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K36" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M36" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
-        <v>4</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K37" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M37" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K38" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M38" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K39" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M39" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K40" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M40" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K41" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M41" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K42" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M42" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K43" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M43" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K44" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M44" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <v>4</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K45" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M45" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K46" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M46" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K47" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M47" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K48" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M48" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K49" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M49" t="str">
-        <f>Meta[[#This Row],[loja_key]]&amp;Meta[[#This Row],[Ciclo]]&amp;Meta[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 4</v>
       </c>
     </row>
   </sheetData>
@@ -11207,7 +10091,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12968,7 +11852,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19560,10 +18444,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52E957-EADF-4999-9EDB-30527D5BF517}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19618,7 +18502,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -19649,7 +18533,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -19680,7 +18564,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -19711,7 +18595,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -19742,7 +18626,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -19773,7 +18657,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -19804,7 +18688,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -19835,7 +18719,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -19866,7 +18750,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -19897,7 +18781,7 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -19928,7 +18812,7 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -19959,7 +18843,7 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -19979,1122 +18863,6 @@
       <c r="M13" t="str">
         <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
         <v>20SetembroSemana 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K14" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M14" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K15" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M15" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K16" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M16" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K17" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M17" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K18" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M18" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K19" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M19" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K20" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M20" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K21" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M21" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K22" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M22" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K23" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M23" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K24" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M24" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K25" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M25" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K26" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M26" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K27" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M27" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K28" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M28" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K29" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M29" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K30" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M30" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K31" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M31" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K32" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M32" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>7</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K33" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M33" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K34" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M34" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K35" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M35" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>7</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K36" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M36" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K37" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M37" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>7</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K38" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M38" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K39" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M39" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K40" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M40" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K41" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M41" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K42" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M42" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K43" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M43" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>7</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K44" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M44" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>7</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K45" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M45" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>7</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K46" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M46" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>7</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K47" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M47" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>7</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K48" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M48" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>7</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K49" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M49" t="str">
-        <f>Engajamento[[#This Row],[loja_key]]&amp;Engajamento[[#This Row],[Ciclo]]&amp;Engajamento[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 4</v>
       </c>
     </row>
   </sheetData>
@@ -21107,10 +18875,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599A5194-F1AC-4D98-BD5A-630CEA78448F}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21164,6 +18932,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2">
         <v>2</v>
       </c>
@@ -21195,6 +18966,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -21226,6 +19000,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -21257,6 +19034,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
@@ -21288,6 +19068,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <v>2</v>
       </c>
@@ -21319,6 +19102,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
         <v>2</v>
       </c>
@@ -21350,6 +19136,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <v>2</v>
       </c>
@@ -21381,6 +19170,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>11</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>2</v>
       </c>
@@ -21412,6 +19204,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -21443,6 +19238,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>14</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>2</v>
       </c>
@@ -21474,6 +19272,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -21505,6 +19306,9 @@
         <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
         <v>20</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13">
         <v>2</v>
       </c>
@@ -21526,1122 +19330,6 @@
       <c r="M13" t="str">
         <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
         <v>20SetembroSemana 1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K14" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M14" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K15" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M15" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K16" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M16" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K17" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M17" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K18" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M18" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K19" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M19" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K20" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M20" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K21" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M21" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K22" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M22" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K23" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M23" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>45908</v>
-      </c>
-      <c r="K24" s="1">
-        <v>45914</v>
-      </c>
-      <c r="M24" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K25" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M25" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K26" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M26" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K27" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M27" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K28" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M28" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K29" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M29" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K30" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M30" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K31" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M31" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>9</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K32" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M32" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K33" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M33" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K34" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M34" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K35" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M35" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K36" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M36" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="1">
-        <v>45915</v>
-      </c>
-      <c r="K37" s="1">
-        <v>45921</v>
-      </c>
-      <c r="M37" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K38" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M38" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>1SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K39" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M39" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>2SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K40" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M40" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>4SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K41" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M41" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>6SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K42" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M42" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>7SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>8</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K43" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M43" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>8SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>9</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K44" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M44" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>10SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>9</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K45" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M45" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>11SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>9</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K46" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M46" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>12SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>9</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K47" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M47" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>14SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>19</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>9</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K48" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M48" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>19SetembroSemana 4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="2">
-        <f>_xlfn.XLOOKUP(Base1PlanoVoo[[#This Row],[NomeLoja]],perfilLoja[Nome_Loja_Simples],perfilLoja[Loja Key])</f>
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>9</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="1">
-        <v>45922</v>
-      </c>
-      <c r="K49" s="1">
-        <v>45930</v>
-      </c>
-      <c r="M49" t="str">
-        <f>VisualMerchandising[[#This Row],[loja_key]]&amp;VisualMerchandising[[#This Row],[Ciclo]]&amp;VisualMerchandising[[#This Row],[Período]]</f>
-        <v>20SetembroSemana 4</v>
       </c>
     </row>
   </sheetData>
@@ -22653,14 +19341,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="13da06dc-386b-4f36-81f5-d6eca2d4f35a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ea526aaa-164e-434a-8705-9abc16ff397f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22859,21 +19545,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="13da06dc-386b-4f36-81f5-d6eca2d4f35a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ea526aaa-164e-434a-8705-9abc16ff397f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF07FC91-9956-4880-88CB-EF05853CDE0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4529B6D-F9C4-4C0F-BDDC-0CCD5F86C80D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="13da06dc-386b-4f36-81f5-d6eca2d4f35a"/>
-    <ds:schemaRef ds:uri="ea526aaa-164e-434a-8705-9abc16ff397f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22898,9 +19583,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4529B6D-F9C4-4C0F-BDDC-0CCD5F86C80D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF07FC91-9956-4880-88CB-EF05853CDE0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="13da06dc-386b-4f36-81f5-d6eca2d4f35a"/>
+    <ds:schemaRef ds:uri="ea526aaa-164e-434a-8705-9abc16ff397f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>